--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,13 +52,25 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>war</t>
@@ -70,48 +79,48 @@
     <t>recession</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -127,157 +136,151 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>clean</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>giving</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>key</t>
   </si>
   <si>
     <t>increase</t>
@@ -286,64 +289,64 @@
     <t>share</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>want</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
-    <t>make</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -823,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -873,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -923,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -973,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6923076923076923</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.9473684210526315</v>
@@ -1023,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.9347826086956522</v>
@@ -1073,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6815068493150684</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>0.9230769230769231</v>
@@ -1123,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5526315789473685</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5483870967741935</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8636363636363636</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4102564102564102</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,37 +1376,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4102564102564102</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>23</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8203125</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L15">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4054054054054054</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.36</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3529411764705883</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7931034482758621</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3422818791946309</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>0.7916666666666666</v>
@@ -1623,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3372093023255814</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3121693121693122</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.288135593220339</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.7666666666666667</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2857142857142857</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1815,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7452830188679245</v>
+        <v>0.74375</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1876,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2542372881355932</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0.7254901960784313</v>
@@ -1923,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2444444444444444</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.70625</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L26">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1706349206349206</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +1994,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07774798927613941</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,97 +2044,169 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.6842105263157895</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.1625</v>
+      </c>
+      <c r="C29">
         <v>13</v>
       </c>
-      <c r="M28">
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>67</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L29">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.1468253968253968</v>
+      </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>215</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30">
         <v>0.6702127659574468</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>63</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>63</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>339</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.6388888888888888</v>
+        <v>0.6214099216710183</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2169,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.6005221932114883</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L33">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2195,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2221,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.58</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2247,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2273,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.575</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2299,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.5764705882352941</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2325,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>144</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5617977528089888</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2351,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5581395348837209</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2377,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.5555555555555556</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2403,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.5483870967741935</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2429,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.54</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2455,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.5357142857142857</v>
+        <v>0.5186440677966102</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2481,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.5288135593220339</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L45">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="M45">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2507,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.5185185185185185</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2533,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2564,16 +2639,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2585,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.4857142857142857</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2611,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.4848484848484849</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2637,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.46875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2663,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.4657534246575342</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2689,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.4615384615384616</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2715,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.4602510460251046</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L54">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2741,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.425</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2767,21 +2842,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.358974358974359</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2793,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.3285714285714286</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2819,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.3114754098360656</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2845,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.1944444444444444</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2871,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.1578947368421053</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2897,21 +2972,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.1076555023923445</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L61">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2923,21 +2998,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>373</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.1023622047244094</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2949,30 +3024,30 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>114</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.1007751937984496</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M63">
         <v>15</v>
       </c>
       <c r="N63">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>116</v>
@@ -2980,16 +3055,16 @@
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.09696969696969697</v>
+        <v>0.09375</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3001,21 +3076,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.09302325581395349</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3027,21 +3102,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.08176100628930817</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3053,47 +3128,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0.08173076923076923</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>382</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K68">
-        <v>0.07906976744186046</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3105,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>198</v>
+        <v>838</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K69">
-        <v>0.06727828746177369</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3131,21 +3206,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K70">
-        <v>0.06599552572706935</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L70">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M70">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3157,47 +3232,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>835</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K71">
-        <v>0.06511627906976744</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>201</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K72">
-        <v>0.04994450610432852</v>
+        <v>0.02986467568828745</v>
       </c>
       <c r="L72">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M72">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3209,21 +3284,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>856</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K73">
-        <v>0.03806228373702422</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L73">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3235,41 +3310,41 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>834</v>
+        <v>850</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K74">
-        <v>0.03543913713405239</v>
+        <v>0.01654601861427094</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>626</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K75">
-        <v>0.02289719626168224</v>
+        <v>0.0157860824742268</v>
       </c>
       <c r="L75">
         <v>49</v>
@@ -3287,85 +3362,33 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2091</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K76">
-        <v>0.0145114479200258</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L76">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N76">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="O76">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K77">
-        <v>0.01446280991735537</v>
-      </c>
-      <c r="L77">
-        <v>14</v>
-      </c>
-      <c r="M77">
-        <v>14</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K78">
-        <v>0.008450704225352112</v>
-      </c>
-      <c r="L78">
-        <v>27</v>
-      </c>
-      <c r="M78">
-        <v>33</v>
-      </c>
-      <c r="N78">
-        <v>0.82</v>
-      </c>
-      <c r="O78">
-        <v>0.18</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>3168</v>
+        <v>3179</v>
       </c>
     </row>
   </sheetData>
